--- a/Courses/PROG1500 - Databases and SQL/Modules/Module 1 - SQL and Data/Assignments/Assignment1_3NFTable_ryan.xlsx
+++ b/Courses/PROG1500 - Databases and SQL/Modules/Module 1 - SQL and Data/Assignments/Assignment1_3NFTable_ryan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4400113921\Desktop\Ryan\Software_Technology\Courses\PROG1500 - Databases and SQL\Modules\Module 1 - SQL and Data\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5816DE6A-EC10-4AE1-869B-CC38E2C53B75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F979678C-92D2-4B75-96B3-7E42E2DD670B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15480" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -787,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
@@ -1314,51 +1314,51 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="str">
-        <f>LOWER(B3)</f>
+        <f t="shared" ref="B18:M18" si="0">LOWER(B3)</f>
         <v>student_id</v>
       </c>
       <c r="C18" s="5" t="str">
-        <f>LOWER(C3)</f>
+        <f t="shared" si="0"/>
         <v>student_name</v>
       </c>
       <c r="D18" s="5" t="str">
-        <f>LOWER(D3)</f>
+        <f t="shared" si="0"/>
         <v>certificate</v>
       </c>
       <c r="E18" s="5" t="str">
-        <f>LOWER(E3)</f>
+        <f t="shared" si="0"/>
         <v>phone</v>
       </c>
       <c r="F18" s="5" t="str">
-        <f>LOWER(F3)</f>
+        <f t="shared" si="0"/>
         <v>class_room_number</v>
       </c>
       <c r="G18" s="5" t="str">
-        <f>LOWER(G3)</f>
+        <f t="shared" si="0"/>
         <v>class_time</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>LOWER(H3)</f>
+        <f t="shared" si="0"/>
         <v>class_id</v>
       </c>
       <c r="I18" s="5" t="str">
-        <f>LOWER(I3)</f>
+        <f t="shared" si="0"/>
         <v>class_title</v>
       </c>
       <c r="J18" s="5" t="str">
-        <f>LOWER(J3)</f>
+        <f t="shared" si="0"/>
         <v>student_start_date</v>
       </c>
       <c r="K18" s="5" t="str">
-        <f>LOWER(K3)</f>
+        <f t="shared" si="0"/>
         <v>progress_scheduled</v>
       </c>
       <c r="L18" s="5" t="str">
-        <f>LOWER(L3)</f>
+        <f t="shared" si="0"/>
         <v>progress_completed</v>
       </c>
       <c r="M18" s="5" t="str">
-        <f>LOWER(M3)</f>
+        <f t="shared" si="0"/>
         <v>progress_precent</v>
       </c>
     </row>
@@ -1842,15 +1842,15 @@
         <v>student_id</v>
       </c>
       <c r="C34" s="5" t="str">
-        <f t="shared" ref="C34:E34" si="0">LOWER(C18)</f>
+        <f t="shared" ref="C34:E34" si="1">LOWER(C18)</f>
         <v>student_name</v>
       </c>
       <c r="D34" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>certificate</v>
       </c>
       <c r="E34" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>phone</v>
       </c>
       <c r="F34" s="5" t="s">
